--- a/DMSNewVSale_2025-12-21_12-42.xlsx
+++ b/DMSNewVSale_2025-12-21_12-42.xlsx
@@ -80,12 +80,24 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -210,6 +219,15 @@
   </si>
   <si>
     <t>2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
   </si>
   <si>
     <t>كريم ONE للبشره الحساسه</t>
@@ -1001,15 +1019,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>11</v>
@@ -1021,14 +1039,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1061,7 +1079,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1071,11 +1089,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>11</v>
@@ -1087,14 +1105,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1160,7 +1178,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1170,11 +1188,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>11</v>
@@ -1186,7 +1204,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1199,7 +1217,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1226,13 +1244,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1243,7 +1261,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1259,13 +1277,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1276,7 +1294,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1292,13 +1310,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1331,7 +1349,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1342,7 +1360,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1351,31 +1369,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1391,21 +1409,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>11</v>
@@ -1417,28 +1435,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>11</v>
@@ -1450,20 +1468,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1496,15 +1514,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>11</v>
@@ -1516,68 +1534,134 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>79</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>80</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>25</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>81</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>18</v>
       </c>
-      <c t="s" r="Q26" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="26.25" customHeight="1">
-      <c r="N27" s="13">
-        <v>1033.095</v>
-      </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>78</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>79</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>80</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>83</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>25</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>81</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>18</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="26.25" customHeight="1">
+      <c r="N29" s="13">
+        <v>1105.095</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>84</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>85</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>86</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1686,10 +1770,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
